--- a/biology/Botanique/Persillade/Persillade.xlsx
+++ b/biology/Botanique/Persillade/Persillade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Une persillade est une recette simple de sauce froide ou de condiment, à base de persil et d'ail hachés, et éventuellement d'échalote, d'huile d'olive, de vinaigre, et/ou de chapelure[1].
+Une persillade est une recette simple de sauce froide ou de condiment, à base de persil et d'ail hachés, et éventuellement d'échalote, d'huile d'olive, de vinaigre, et/ou de chapelure.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La persillade peut agrémenter tartines, légumes, champignons, viandes, poissons, coquillages, crustacés, escargots, pâtes, riz, ou fromages frais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La persillade peut agrémenter tartines, légumes, champignons, viandes, poissons, coquillages, crustacés, escargots, pâtes, riz, ou fromages frais.
 			Avec des spaghettis.
 			Avec des cuisses de grenouille.
 			Avec escargots de Bourgogne et girolles.
@@ -546,7 +560,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette préparation est une variante des fines herbes[Quoi ?], sauce à l'ail, beurre à l'ail, pistou, pesto, ou gremolata.
 			Pain à l'ail.
